--- a/xlsx/country_comparison/global_tax_global_share_mean.xlsx
+++ b/xlsx/country_comparison/global_tax_global_share_mean.xlsx
@@ -389,20 +389,18 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>41.5384615384615</v>
+        <v>43.0769230769231</v>
       </c>
       <c r="C2" t="n">
-        <v>41.1111111111111</v>
+        <v>37.3333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>38.3333333333333</v>
+        <v>38.8235294117647</v>
       </c>
       <c r="E2" t="n">
-        <v>39.5652173913044</v>
-      </c>
-      <c r="F2" t="n">
-        <v>25.5555555555556</v>
-      </c>
+        <v>32.8571428571429</v>
+      </c>
+      <c r="F2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/country_comparison/global_tax_global_share_mean.xlsx
+++ b/xlsx/country_comparison/global_tax_global_share_mean.xlsx
@@ -389,16 +389,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>43.0769230769231</v>
+        <v>37.4534161490683</v>
       </c>
       <c r="C2" t="n">
-        <v>37.3333333333333</v>
+        <v>30.761421319797</v>
       </c>
       <c r="D2" t="n">
-        <v>38.8235294117647</v>
+        <v>33.8961038961039</v>
       </c>
       <c r="E2" t="n">
-        <v>32.8571428571429</v>
+        <v>33.4640522875817</v>
       </c>
       <c r="F2"/>
     </row>

--- a/xlsx/country_comparison/global_tax_global_share_mean.xlsx
+++ b/xlsx/country_comparison/global_tax_global_share_mean.xlsx
@@ -389,16 +389,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>37.4534161490683</v>
+        <v>36.1905118545492</v>
       </c>
       <c r="C2" t="n">
-        <v>30.761421319797</v>
+        <v>30.0086626960225</v>
       </c>
       <c r="D2" t="n">
-        <v>33.8961038961039</v>
+        <v>33.1051207853961</v>
       </c>
       <c r="E2" t="n">
-        <v>33.4640522875817</v>
+        <v>32.6013850409235</v>
       </c>
       <c r="F2"/>
     </row>

--- a/xlsx/country_comparison/global_tax_global_share_mean.xlsx
+++ b/xlsx/country_comparison/global_tax_global_share_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Preferred share of global tax for low-income</t>
@@ -383,24 +386,30 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>36.1905118545492</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" t="n">
-        <v>30.0086626960225</v>
+        <v>32.6735950282507</v>
       </c>
       <c r="D2" t="n">
-        <v>33.1051207853961</v>
+        <v>36.0471642040983</v>
       </c>
       <c r="E2" t="n">
-        <v>32.6013850409235</v>
-      </c>
-      <c r="F2"/>
+        <v>29.9530154268425</v>
+      </c>
+      <c r="F2" t="n">
+        <v>31.6430933252316</v>
+      </c>
+      <c r="G2" t="n">
+        <v>32.0013203740608</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/country_comparison/global_tax_global_share_mean.xlsx
+++ b/xlsx/country_comparison/global_tax_global_share_mean.xlsx
@@ -394,21 +394,23 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C2" t="n">
-        <v>32.6735950282507</v>
+        <v>33.296533020029</v>
       </c>
       <c r="D2" t="n">
-        <v>36.0471642040983</v>
+        <v>36.2176337470798</v>
       </c>
       <c r="E2" t="n">
-        <v>29.9530154268425</v>
+        <v>29.9405897362801</v>
       </c>
       <c r="F2" t="n">
-        <v>31.6430933252316</v>
+        <v>31.8597364037953</v>
       </c>
       <c r="G2" t="n">
-        <v>32.0013203740608</v>
+        <v>33.7384295814651</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_tax_global_share_mean.xlsx
+++ b/xlsx/country_comparison/global_tax_global_share_mean.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Preferred share of global tax for low-income</t>
+    <t xml:space="preserve">Preferred share of global tax for low-income (in %)</t>
   </si>
 </sst>
 </file>
@@ -394,23 +394,23 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="e">
-        <v>#NUM!</v>
+      <c r="B2" t="n">
+        <v>35.6819362738708</v>
       </c>
       <c r="C2" t="n">
-        <v>33.296533020029</v>
+        <v>33.3476790355695</v>
       </c>
       <c r="D2" t="n">
-        <v>36.2176337470798</v>
+        <v>36.2168921603661</v>
       </c>
       <c r="E2" t="n">
-        <v>29.9405897362801</v>
+        <v>29.9407595848263</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8597364037953</v>
+        <v>32.9996191848469</v>
       </c>
       <c r="G2" t="n">
-        <v>33.7384295814651</v>
+        <v>33.7379192022892</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_tax_global_share_mean.xlsx
+++ b/xlsx/country_comparison/global_tax_global_share_mean.xlsx
@@ -395,10 +395,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>35.6819362738708</v>
+        <v>32.2218125041554</v>
       </c>
       <c r="C2" t="n">
-        <v>33.3476790355695</v>
+        <v>33.3153228057523</v>
       </c>
       <c r="D2" t="n">
         <v>36.2168921603661</v>
@@ -407,7 +407,7 @@
         <v>29.9407595848263</v>
       </c>
       <c r="F2" t="n">
-        <v>32.9996191848469</v>
+        <v>33.2953250566263</v>
       </c>
       <c r="G2" t="n">
         <v>33.7379192022892</v>

--- a/xlsx/country_comparison/global_tax_global_share_mean.xlsx
+++ b/xlsx/country_comparison/global_tax_global_share_mean.xlsx
@@ -395,7 +395,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>32.2218125041554</v>
+        <v>33.5092886890164</v>
       </c>
       <c r="C2" t="n">
         <v>33.3153228057523</v>
